--- a/apps/reports/excell/events_template.xlsx
+++ b/apps/reports/excell/events_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE7D65-9F77-4FA4-8A3B-369D5F9E99B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A1E97-DE97-41FF-BCD3-36C6F7AA5E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -317,12 +317,36 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -341,36 +365,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -691,7 +686,10 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N6" activeCellId="3" sqref="B6:C6 L6 M6 N6"/>
+      <pane xSplit="14" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,71 +698,71 @@
     <col min="2" max="2" width="81.42578125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="13" width="23.5703125" customWidth="1"/>
     <col min="14" max="14" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="24" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
@@ -783,9 +781,9 @@
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
@@ -800,7 +798,7 @@
       <c r="D4" s="14">
         <v>4</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="14">
         <v>6</v>
       </c>
       <c r="F4" s="14">
@@ -812,7 +810,7 @@
       <c r="H4" s="14">
         <v>9</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14">
@@ -852,20 +850,20 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -971,6 +969,10 @@
     <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" fitToWidth="0" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="2" max="7" man="1"/>
+    <brk id="7" max="7" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>